--- a/MetaWorldNPT/JavaScripts/controller/media/example/excel/Sound_音效表.xlsx
+++ b/MetaWorldNPT/JavaScripts/controller/media/example/excel/Sound_音效表.xlsx
@@ -1,20 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="0"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\MetaWorldEditor\MetaWorldSaved\Saved\MetaWorld\Project\Edit\MetaWorldNPT\MetaWorldNPT\JavaScripts\controller\media\example\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2DA74C-5F34-41F4-9430-B861B4B29E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
   <si>
     <t>int</t>
   </si>
@@ -73,10 +80,10 @@
     <t>ID</t>
   </si>
   <si>
-    <t xml:space="preserve">Asset ID</t>
+    <t>Asset ID</t>
   </si>
   <si>
-    <t xml:space="preserve">循环次数
+    <t>循环次数
 &lt;=0 不限次数
 &gt;0 指定次数</t>
   </si>
@@ -84,10 +91,10 @@
     <t>音量大小</t>
   </si>
   <si>
-    <t xml:space="preserve">是否 空间的</t>
+    <t>是否 空间的</t>
   </si>
   <si>
-    <t xml:space="preserve">空间衰减函数模型
+    <t>空间衰减函数模型
 线性 0，指数 1，倒数 2，反指数 3</t>
   </si>
   <si>
@@ -105,6 +112,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>0</t>
     </r>
@@ -121,6 +129,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>1</t>
     </r>
@@ -137,6 +146,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>2</t>
     </r>
@@ -153,17 +163,14 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>3</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">空间衰减形状的范围
+    <t>空间衰减形状的范围
 针对不同的衰减形状，该属性的意义不同</t>
-  </si>
-  <si>
-    <t xml:space="preserve">空间衰减距离
-空间衰减形状外 按照该距离进行衰减</t>
   </si>
   <si>
     <r>
@@ -172,13 +179,14 @@
         <color theme="1"/>
         <rFont val="思源黑体 CN"/>
       </rPr>
-      <t xml:space="preserve">是否 UI</t>
+      <t>是否 UI</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -188,12 +196,12 @@
         <color theme="1"/>
         <rFont val="思源黑体 CN"/>
       </rPr>
-      <t xml:space="preserve">的
+      <t>的
 UI 音效在游戏暂停时仍播放</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">是否 独占的
+    <t>是否 独占的
 独占音效在播放时会停止其他同 AssetId 音效</t>
   </si>
   <si>
@@ -203,36 +211,118 @@
     <t>备注</t>
   </si>
   <si>
-    <t xml:space="preserve">主场景 BGM</t>
+    <t>主场景 BGM</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="思源黑体 CN"/>
+      </rPr>
+      <t>空间衰减距离
+空间衰减形状外</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="思源黑体 CN"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="思源黑体 CN"/>
+      </rPr>
+      <t>按照该距离进行衰减</t>
+    </r>
+  </si>
+  <si>
+    <t>$F$5:$I$1048576</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>$E5=0</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>$F$5:$G$1048576</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>$H$5:$H$1048576</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>(LEN($H5)-LEN(SUBSTITUTE($H5,"|","")))&gt;IF(ISNUMBER($G5),MIN($G5,2),0)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>介于 0 3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9">
     <font>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="思源黑体 CN"/>
     </font>
     <font>
-      <sz val="10.000000"/>
-      <name val="Arial"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="更纱黑体 SC"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="10.000000"/>
-      <color theme="1"/>
-      <name val="更纱黑体 SC"/>
-    </font>
-    <font>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color indexed="64"/>
       <name val="思源黑体 CN"/>
     </font>
     <font>
-      <sz val="10.000000"/>
+      <sz val="10"/>
       <name val="更纱黑体 SC"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="思源黑体 CN"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="思源黑体 CN"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -245,373 +335,117 @@
   </fills>
   <borders count="1">
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
-      <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-      <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-      <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-      <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-      <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-      <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
-    <cellStyle name="Currency" xfId="3" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Percent" xfId="5" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color indexed="65"/>
+        <name val="思源黑体 CN"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCC0000"/>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="center" textRotation="0" wrapText="0" relativeIndent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <sz val="11"/>
+        <color indexed="23"/>
+        <name val="思源黑体 CN"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" relativeIndent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color indexed="65"/>
+        <name val="思源黑体 CN"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCC0000"/>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="center" textRotation="0" wrapText="0" relativeIndent="0" shrinkToFit="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="WPS">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="WPS">
   <a:themeElements>
     <a:clrScheme name="WPS">
       <a:dk1>
@@ -663,7 +497,7 @@
         <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -773,38 +607,37 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
-  <sheetPr filterMode="0">
-    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
-    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMN16"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" view="normal" topLeftCell="A1" zoomScale="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="F9" activeCellId="0" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.19140625" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="12.75"/>
   <cols>
-    <col customWidth="0" min="1" max="1" style="1" width="8.1899999999999995"/>
-    <col customWidth="1" min="2" max="2" style="1" width="12.289999999999999"/>
-    <col customWidth="1" min="3" max="3" style="1" width="16.719999999999999"/>
-    <col customWidth="0" min="4" max="4" style="1" width="8.1899999999999995"/>
-    <col customWidth="1" min="5" max="5" style="1" width="11.390000000000001"/>
-    <col customWidth="1" min="6" max="6" style="1" width="28.98"/>
-    <col customWidth="1" min="7" max="7" style="1" width="28.73"/>
-    <col customWidth="1" min="8" max="8" style="1" width="23.289999999999999"/>
-    <col customWidth="1" min="9" max="9" style="1" width="21.719999999999999"/>
-    <col customWidth="1" min="10" max="12" style="1" width="14.220000000000001"/>
-    <col customWidth="1" min="13" max="13" style="1" width="34.549999999999997"/>
-    <col customWidth="0" min="14" max="16384" style="1" width="8.1899999999999995"/>
+    <col min="1" max="1" width="8.25" style="1"/>
+    <col min="2" max="2" width="12.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.25" style="1"/>
+    <col min="5" max="5" width="11.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29" style="1" customWidth="1"/>
+    <col min="7" max="7" width="28.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.75" style="1" customWidth="1"/>
+    <col min="10" max="12" width="14.25" style="1" customWidth="1"/>
+    <col min="13" max="13" width="34.5" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" ht="14.25">
+    <row r="1" spans="1:1028" s="2" customFormat="1" ht="14.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1860,7 +1693,7 @@
       <c r="AMM1" s="3"/>
       <c r="AMN1" s="3"/>
     </row>
-    <row r="2" s="2" customFormat="1" ht="14.25">
+    <row r="2" spans="1:1028" s="2" customFormat="1" ht="14.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -2916,7 +2749,7 @@
       <c r="AMM2" s="3"/>
       <c r="AMN2" s="3"/>
     </row>
-    <row r="3" s="4" customFormat="1" ht="90">
+    <row r="3" spans="1:1028" s="4" customFormat="1" ht="85.5">
       <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
@@ -2941,20 +2774,20 @@
       <c r="H3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="K3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="L3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="M3" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
@@ -3972,10 +3805,10 @@
       <c r="AMM3" s="5"/>
       <c r="AMN3" s="5"/>
     </row>
-    <row r="4" s="7" customFormat="1" ht="14.25">
+    <row r="4" spans="1:1028" s="7" customFormat="1">
       <c r="B4" s="8"/>
     </row>
-    <row r="5" s="9" customFormat="1" ht="17" customHeight="1">
+    <row r="5" spans="1:1028" s="9" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A5" s="9">
         <v>1</v>
       </c>
@@ -4010,17 +3843,17 @@
         <v>0</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M5" s="10"/>
     </row>
-    <row r="6" ht="17" customHeight="1">
+    <row r="6" spans="1:1028" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="9"/>
     </row>
-    <row r="7" ht="17" customHeight="1">
+    <row r="7" spans="1:1028" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="9"/>
     </row>
-    <row r="8" ht="17" customHeight="1">
+    <row r="8" spans="1:1028" ht="17.100000000000001" customHeight="1">
       <c r="A8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -4032,7 +3865,7 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
     </row>
-    <row r="9" ht="17" customHeight="1">
+    <row r="9" spans="1:1028" ht="17.100000000000001" customHeight="1">
       <c r="A9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -4044,117 +3877,89 @@
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
     </row>
-    <row r="10" ht="17" customHeight="1">
+    <row r="10" spans="1:1028" ht="17.100000000000001" customHeight="1">
       <c r="A10" s="9"/>
     </row>
-    <row r="11" ht="17" customHeight="1">
+    <row r="11" spans="1:1028" ht="17.100000000000001" customHeight="1">
       <c r="A11" s="9"/>
     </row>
-    <row r="12" ht="17" customHeight="1">
+    <row r="12" spans="1:1028" ht="17.100000000000001" customHeight="1">
       <c r="A12" s="9"/>
     </row>
-    <row r="13" ht="17" customHeight="1">
+    <row r="13" spans="1:1028" ht="17.100000000000001" customHeight="1">
       <c r="A13" s="9"/>
     </row>
-    <row r="14" ht="17" customHeight="1">
+    <row r="14" spans="1:1028" ht="17.100000000000001" customHeight="1">
       <c r="A14" s="9"/>
     </row>
-    <row r="15" ht="17" customHeight="1">
+    <row r="15" spans="1:1028" ht="17.100000000000001" customHeight="1">
       <c r="A15" s="9"/>
     </row>
-    <row r="16" ht="17" customHeight="1">
+    <row r="16" spans="1:1028" ht="17.100000000000001" customHeight="1">
       <c r="A16" s="9"/>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0" horizontalCentered="0" verticalCentered="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.51181102362204689" footer="0.51181102362204689"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="5" aboveAverage="0" rank="0" text="" id="{00730047-00D3-4F99-B8F3-00940035002B}">
-            <xm:f>(LEN($H5)-LEN(SUBSTITUTE($H5,"|","")))&gt;IF(ISNUMBER($G5),MIN($G5,2),0)</xm:f>
-            <x14:dxf>
-              <font>
-                <b/>
-                <sz val="11.000000"/>
-                <color indexed="65"/>
-                <name val="思源黑体 CN"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFCC0000"/>
-                  <bgColor rgb="FFCC0000"/>
-                </patternFill>
-              </fill>
-              <alignment indent="0" relativeIndent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H5:H1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="4" aboveAverage="0" operator="notBetween" rank="0" text="" id="{002900A1-00AE-46D2-8417-00D900D9008C}">
-            <xm:f>0</xm:f>
-            <xm:f>3</xm:f>
-            <x14:dxf>
-              <font>
-                <b/>
-                <sz val="11.000000"/>
-                <color indexed="65"/>
-                <name val="思源黑体 CN"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFCC0000"/>
-                  <bgColor rgb="FFCC0000"/>
-                </patternFill>
-              </fill>
-              <alignment indent="0" relativeIndent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G5:G1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" aboveAverage="0" operator="notBetween" rank="0" text="" id="{00EC00CD-0088-4683-B9D0-0058009A0099}">
-            <xm:f>0</xm:f>
-            <xm:f>3</xm:f>
-            <x14:dxf>
-              <font>
-                <b/>
-                <sz val="11.000000"/>
-                <color indexed="65"/>
-                <name val="思源黑体 CN"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFCC0000"/>
-                  <bgColor rgb="FFCC0000"/>
-                </patternFill>
-              </fill>
-              <alignment indent="0" relativeIndent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>F5:F1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="2" aboveAverage="0" rank="0" text="" id="{00D70098-00A0-41C0-9542-00DB000B00F8}">
-            <xm:f>$E5=0</xm:f>
-            <x14:dxf>
-              <font>
-                <i/>
-                <sz val="11.000000"/>
-                <color indexed="23"/>
-                <name val="思源黑体 CN"/>
-              </font>
-              <alignment indent="0" relativeIndent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>F5:I1048576</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <conditionalFormatting sqref="F5:G1048576">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="notBetween">
+      <formula>0</formula>
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5:I1048576">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$E5=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:H1048576">
+    <cfRule type="expression" dxfId="0" priority="5">
+      <formula>(LEN($H5)-LEN(SUBSTITUTE($H5,"|","")))&gt;IF(ISNUMBER($G5),MIN($G5,2),0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51181102362204689" footer="0.51181102362204689"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBBB164D-C2D1-4F4E-A2B2-4C00FF193ABB}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="37" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/MetaWorldNPT/JavaScripts/controller/media/example/excel/Sound_音效表.xlsx
+++ b/MetaWorldNPT/JavaScripts/controller/media/example/excel/Sound_音效表.xlsx
@@ -273,7 +273,7 @@
     <t xml:space="preserve">$F$5:$G$1048576</t>
   </si>
   <si>
-    <t xml:space="preserve">介于 0 3</t>
+    <t xml:space="preserve">不介于 0 3</t>
   </si>
   <si>
     <t xml:space="preserve">$H$5:$H$1048576</t>
@@ -349,9 +349,9 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <name val="更纱黑体 SC"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -396,52 +396,56 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -716,10 +720,10 @@
   </sheetPr>
   <dimension ref="A1:AMN16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.2578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4034,24 +4038,25 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6171875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="11" width="37"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="2" style="12" width="8.62"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="11" t="s">
         <v>34</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -4059,10 +4064,10 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="11" t="s">
         <v>37</v>
       </c>
     </row>

--- a/MetaWorldNPT/JavaScripts/controller/media/example/excel/Sound_音效表.xlsx
+++ b/MetaWorldNPT/JavaScripts/controller/media/example/excel/Sound_音效表.xlsx
@@ -100,6 +100,7 @@
   <si>
     <r>
       <rPr>
+        <b val="true"/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="思源黑体 CN"/>
@@ -111,6 +112,7 @@
     </r>
     <r>
       <rPr>
+        <b val="true"/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -121,6 +123,7 @@
     </r>
     <r>
       <rPr>
+        <b val="true"/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="思源黑体 CN"/>
@@ -131,6 +134,7 @@
     </r>
     <r>
       <rPr>
+        <b val="true"/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -141,6 +145,7 @@
     </r>
     <r>
       <rPr>
+        <b val="true"/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="思源黑体 CN"/>
@@ -151,6 +156,7 @@
     </r>
     <r>
       <rPr>
+        <b val="true"/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -161,6 +167,7 @@
     </r>
     <r>
       <rPr>
+        <b val="true"/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="思源黑体 CN"/>
@@ -171,6 +178,7 @@
     </r>
     <r>
       <rPr>
+        <b val="true"/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -187,6 +195,7 @@
   <si>
     <r>
       <rPr>
+        <b val="true"/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="思源黑体 CN"/>
@@ -198,6 +207,7 @@
     </r>
     <r>
       <rPr>
+        <b val="true"/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="思源黑体 CN"/>
@@ -208,6 +218,7 @@
     </r>
     <r>
       <rPr>
+        <b val="true"/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="思源黑体 CN"/>
@@ -220,6 +231,7 @@
   <si>
     <r>
       <rPr>
+        <b val="true"/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="思源黑体 CN"/>
@@ -230,6 +242,7 @@
     </r>
     <r>
       <rPr>
+        <b val="true"/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -240,6 +253,7 @@
     </r>
     <r>
       <rPr>
+        <b val="true"/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="思源黑体 CN"/>
@@ -289,7 +303,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -320,6 +334,15 @@
       <charset val="134"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="思源黑体 CN"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="思源黑体 CN"/>
@@ -327,6 +350,7 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -334,6 +358,7 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="思源黑体 CN"/>
@@ -396,7 +421,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -405,23 +430,23 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -433,19 +458,15 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -723,7 +744,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
+      <selection pane="bottomLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.2578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4041,10 +4062,10 @@
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6171875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="11" width="37"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="2" style="12" width="8.62"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="2" style="11" width="8.62"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
